--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H2">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J2">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>153.7314040912312</v>
+        <v>344.7127110020533</v>
       </c>
       <c r="R2">
-        <v>153.7314040912312</v>
+        <v>3102.41439901848</v>
       </c>
       <c r="S2">
-        <v>0.04888041106835579</v>
+        <v>0.0881659854929092</v>
       </c>
       <c r="T2">
-        <v>0.04888041106835579</v>
+        <v>0.08816598549290917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H3">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J3">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>158.290389170208</v>
+        <v>332.718530688206</v>
       </c>
       <c r="R3">
-        <v>158.290389170208</v>
+        <v>2994.466776193854</v>
       </c>
       <c r="S3">
-        <v>0.05032998518778972</v>
+        <v>0.08509827521185807</v>
       </c>
       <c r="T3">
-        <v>0.05032998518778972</v>
+        <v>0.08509827521185806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H4">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J4">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>87.1653621376727</v>
+        <v>213.003546864732</v>
       </c>
       <c r="R4">
-        <v>87.1653621376727</v>
+        <v>1917.031921782588</v>
       </c>
       <c r="S4">
-        <v>0.02771508370328198</v>
+        <v>0.05447918519808311</v>
       </c>
       <c r="T4">
-        <v>0.02771508370328198</v>
+        <v>0.0544791851980831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.35916716340517</v>
+        <v>11.122774</v>
       </c>
       <c r="H5">
-        <v>5.35916716340517</v>
+        <v>33.368322</v>
       </c>
       <c r="I5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="J5">
-        <v>0.1364653469730998</v>
+        <v>0.2449652610853511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>30.00337187845161</v>
+        <v>67.33411492818401</v>
       </c>
       <c r="R5">
-        <v>30.00337187845161</v>
+        <v>606.007034353656</v>
       </c>
       <c r="S5">
-        <v>0.009539867013672288</v>
+        <v>0.01722181518250074</v>
       </c>
       <c r="T5">
-        <v>0.009539867013672288</v>
+        <v>0.01722181518250073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H6">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J6">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>522.478495543582</v>
+        <v>564.6893229452534</v>
       </c>
       <c r="R6">
-        <v>522.478495543582</v>
+        <v>5082.20390650728</v>
       </c>
       <c r="S6">
-        <v>0.1661271734784287</v>
+        <v>0.144428647583278</v>
       </c>
       <c r="T6">
-        <v>0.1661271734784287</v>
+        <v>0.144428647583278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H7">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J7">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>537.9728682083621</v>
+        <v>545.0411192540661</v>
       </c>
       <c r="R7">
-        <v>537.9728682083621</v>
+        <v>4905.370073286595</v>
       </c>
       <c r="S7">
-        <v>0.1710537615726303</v>
+        <v>0.1394032940459417</v>
       </c>
       <c r="T7">
-        <v>0.1710537615726303</v>
+        <v>0.1394032940459417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H8">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J8">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>296.2441379002565</v>
+        <v>348.930645215652</v>
       </c>
       <c r="R8">
-        <v>296.2441379002565</v>
+        <v>3140.375806940868</v>
       </c>
       <c r="S8">
-        <v>0.09419373564403152</v>
+        <v>0.08924479203185337</v>
       </c>
       <c r="T8">
-        <v>0.09419373564403152</v>
+        <v>0.08924479203185336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.2139076492193</v>
+        <v>18.220714</v>
       </c>
       <c r="H9">
-        <v>18.2139076492193</v>
+        <v>54.662142</v>
       </c>
       <c r="I9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454987</v>
       </c>
       <c r="J9">
-        <v>0.4637972937398354</v>
+        <v>0.4012885600454988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>101.9708152212355</v>
+        <v>110.303027873224</v>
       </c>
       <c r="R9">
-        <v>101.9708152212355</v>
+        <v>992.7272508590161</v>
       </c>
       <c r="S9">
-        <v>0.03242262304474489</v>
+        <v>0.02821182638442566</v>
       </c>
       <c r="T9">
-        <v>0.03242262304474489</v>
+        <v>0.02821182638442566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H10">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J10">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>2.572529568309673</v>
+        <v>3.687960664515555</v>
       </c>
       <c r="R10">
-        <v>2.572529568309673</v>
+        <v>33.19164598064</v>
       </c>
       <c r="S10">
-        <v>0.0008179610635043258</v>
+        <v>0.0009432570255413687</v>
       </c>
       <c r="T10">
-        <v>0.0008179610635043258</v>
+        <v>0.0009432570255413684</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H11">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J11">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>2.648819276235521</v>
+        <v>3.559639126641333</v>
       </c>
       <c r="R11">
-        <v>2.648819276235521</v>
+        <v>32.036752139772</v>
       </c>
       <c r="S11">
-        <v>0.0008422181260462592</v>
+        <v>0.0009104366667743282</v>
       </c>
       <c r="T11">
-        <v>0.0008422181260462592</v>
+        <v>0.0009104366667743281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H12">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J12">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>1.458618509062157</v>
+        <v>2.278850408376</v>
       </c>
       <c r="R12">
-        <v>1.458618509062157</v>
+        <v>20.509653675384</v>
       </c>
       <c r="S12">
-        <v>0.0004637820927763014</v>
+        <v>0.0005828537377149165</v>
       </c>
       <c r="T12">
-        <v>0.0004637820927763014</v>
+        <v>0.0005828537377149163</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0896798937788435</v>
+        <v>0.1189986666666667</v>
       </c>
       <c r="H13">
-        <v>0.0896798937788435</v>
+        <v>0.356996</v>
       </c>
       <c r="I13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="J13">
-        <v>0.00228360068792192</v>
+        <v>0.002620797603979787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>0.5020741322345752</v>
+        <v>0.7203841323786666</v>
       </c>
       <c r="R13">
-        <v>0.5020741322345752</v>
+        <v>6.483457191408</v>
       </c>
       <c r="S13">
-        <v>0.0001596394055950336</v>
+        <v>0.0001842501739491735</v>
       </c>
       <c r="T13">
-        <v>0.0001596394055950336</v>
+        <v>0.0001842501739491735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H14">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J14">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>447.7409520149304</v>
+        <v>494.10019013012</v>
       </c>
       <c r="R14">
-        <v>447.7409520149304</v>
+        <v>4446.90171117108</v>
       </c>
       <c r="S14">
-        <v>0.1423636368639342</v>
+        <v>0.1263743076616526</v>
       </c>
       <c r="T14">
-        <v>0.1423636368639342</v>
+        <v>0.1263743076616526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H15">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J15">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>461.0189437925347</v>
+        <v>476.908115151801</v>
       </c>
       <c r="R15">
-        <v>461.0189437925347</v>
+        <v>4292.173036366209</v>
       </c>
       <c r="S15">
-        <v>0.1465855048686418</v>
+        <v>0.121977149724757</v>
       </c>
       <c r="T15">
-        <v>0.1465855048686418</v>
+        <v>0.121977149724757</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H16">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J16">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>253.8681179486727</v>
+        <v>305.312480930322</v>
       </c>
       <c r="R16">
-        <v>253.8681179486727</v>
+        <v>2747.812328372898</v>
       </c>
       <c r="S16">
-        <v>0.08071986355576892</v>
+        <v>0.07808872404576502</v>
       </c>
       <c r="T16">
-        <v>0.08071986355576892</v>
+        <v>0.07808872404576499</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.6085129250898</v>
+        <v>15.943029</v>
       </c>
       <c r="H17">
-        <v>15.6085129250898</v>
+        <v>47.829087</v>
       </c>
       <c r="I17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="J17">
-        <v>0.3974537585991429</v>
+        <v>0.3511253812651704</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>87.38447663265814</v>
+        <v>96.51456974576402</v>
       </c>
       <c r="R17">
-        <v>87.38447663265814</v>
+        <v>868.631127711876</v>
       </c>
       <c r="S17">
-        <v>0.027784753310798</v>
+        <v>0.02468519983299576</v>
       </c>
       <c r="T17">
-        <v>0.027784753310798</v>
+        <v>0.02468519983299576</v>
       </c>
     </row>
   </sheetData>
